--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.717300000000005</v>
+        <v>6.633300000000004</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.131399999999999</v>
+        <v>9.1882</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.923699999999997</v>
+        <v>8.900799999999998</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.506099999999999</v>
+        <v>-7.613299999999997</v>
       </c>
     </row>
     <row r="25">
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.045799999999995</v>
+        <v>5.786299999999998</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.938</v>
+        <v>-8.345799999999999</v>
       </c>
     </row>
     <row r="29">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.145200000000001</v>
+        <v>-7.1096</v>
       </c>
     </row>
     <row r="37">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.1446</v>
+        <v>-7.227600000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.277899999999994</v>
+        <v>-7.451099999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.025900000000002</v>
+        <v>-7.974999999999998</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.942800000000006</v>
+        <v>-8.032000000000007</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.644699999999998</v>
+        <v>5.160900000000002</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.295599999999999</v>
+        <v>-8.0265</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.091800000000005</v>
+        <v>-8.130600000000006</v>
       </c>
     </row>
     <row r="55">
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.905099999999994</v>
+        <v>5.006899999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.745400000000001</v>
+        <v>4.954999999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.404599999999996</v>
+        <v>5.233499999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.999099999999999</v>
+        <v>-7.1727</v>
       </c>
     </row>
     <row r="71">
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.586400000000003</v>
+        <v>9.482800000000005</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.908599999999998</v>
+        <v>4.898999999999998</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.675600000000001</v>
+        <v>-8.286699999999996</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.28249999999999</v>
+        <v>-8.590599999999995</v>
       </c>
     </row>
     <row r="88">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.503599999999994</v>
+        <v>5.661599999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.935999999999998</v>
+        <v>-7.832100000000004</v>
       </c>
     </row>
     <row r="102">
